--- a/AE Sakib/Satkhira DIV-I/2023-24/Inlet_Barrel_Model/Key_Points.xlsx
+++ b/AE Sakib/Satkhira DIV-I/2023-24/Inlet_Barrel_Model/Key_Points.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Key_Points_Full_Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Node</t>
   </si>
@@ -43,6 +44,66 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>Important Dimension</t>
+  </si>
+  <si>
+    <t>Top Level of Side Wall</t>
+  </si>
+  <si>
+    <t>Embankment Crest Level</t>
+  </si>
+  <si>
+    <t>Height Difference</t>
+  </si>
+  <si>
+    <t>C/S  Slope</t>
+  </si>
+  <si>
+    <t>Varying Height at C/S</t>
+  </si>
+  <si>
+    <t>R/S Side Slope</t>
+  </si>
+  <si>
+    <t>Varying Height at R/S</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>End point of Varying Height Wing Wall</t>
+  </si>
+  <si>
+    <t>Xo_Start at C/S</t>
+  </si>
+  <si>
+    <t>Xcoordinate of Endpoint of Varying Height RW</t>
+  </si>
+  <si>
+    <t>P1_CS</t>
+  </si>
+  <si>
+    <t>P2_CS</t>
+  </si>
+  <si>
+    <t>P1_RS</t>
+  </si>
+  <si>
+    <t>P2_RS</t>
   </si>
 </sst>
 </file>
@@ -365,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -447,4 +508,296 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="10" max="10" width="44.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>200</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-700</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-4150</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-700</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18800</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-4150</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-700</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H4" s="1">
+        <f>C4+1500</f>
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20300</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-4150</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-2200</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-700</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-4150</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-700</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-15500</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-700</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-15500</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-4150</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-700</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1">
+        <f>K8-K7</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
+        <f>K9*K10</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="1">
+        <f>K9*K12</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="1">
+        <f>K14+K11</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="1">
+        <f>K16-K13</f>
+        <v>-15500</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>13</v>
+      </c>
+      <c r="L19">
+        <v>-18799.999599999999</v>
+      </c>
+      <c r="M19">
+        <v>-4150.0001000000002</v>
+      </c>
+      <c r="N19">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <v>-20299.999500000002</v>
+      </c>
+      <c r="M20">
+        <v>-4150.0001000000002</v>
+      </c>
+      <c r="N20">
+        <v>-2200</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>L19-L20</f>
+        <v>1499.9999000000025</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f>6150*2</f>
+        <v>12300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>